--- a/biology/Botanique/Passifloraceae/Passifloraceae.xlsx
+++ b/biology/Botanique/Passifloraceae/Passifloraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Passifloraceae (les Passifloracées) sont une famille de plantes à fleurs dicotylédones de l'ordre des Malpighiales qui comprend plus de 600 espèces réparties en 17 genres.
 Ce sont des arbres, des arbustes, des lianes ou des plantes grimpantes herbacées des régions tropicales.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Passiflora, composé des mots latins passio, passion, et flos, fleur, en référence aux différentes parties de la fleur qui semblent symboliquement représenter la passion de Jésus-Christ.
 En dehors de la référence chrétienne, ces plantes sont parfois appelées « fleur-horloge », la fleur rappelant le cadran d'une horloge.
@@ -545,10 +559,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique place cette famille dans l'ordre des Malpighiales, lui-même rattaché aux Eurosids I.
-La classification phylogénétique APG III (2009)[1] inclut dans cette famille les genres précédemment placés dans les familles Malesherbiaceae (Malesherbia) et Turneraceae (Adenoa, Erblichia, Hyalocalyx, Loewia, Mathurina, Piriqueta, Stapfiella, Streptopetalum, Tricliceras et Turnera).
+La classification phylogénétique APG III (2009) inclut dans cette famille les genres précédemment placés dans les familles Malesherbiaceae (Malesherbia) et Turneraceae (Adenoa, Erblichia, Hyalocalyx, Loewia, Mathurina, Piriqueta, Stapfiella, Streptopetalum, Tricliceras et Turnera).
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (24 mai 2010)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (24 mai 2010) :
 Adenia
 Adenoa (es) (ancienne Turneraceae)
 Ancistrothyrsus (es)
@@ -609,7 +627,7 @@
 Tricliceras (es) (ancienne Turneraceae)
 Turnera (ancienne Turneraceae)
 Viridivia (es)
-Selon NCBI  (24 mai 2010)[3] :
+Selon NCBI  (24 mai 2010) :
 Adenia
 Basananthe
 Deidamia
@@ -624,7 +642,7 @@
 Tetrastylis
 Tricliceras
 Turnera
-Selon DELTA Angio           (24 mai 2010)[4] :
+Selon DELTA Angio           (24 mai 2010) :
 Adenia
 Ancistrothyrsus
 Androsiphonia
